--- a/Fase_01/pronostico_ventas_2023-06-05.xlsx
+++ b/Fase_01/pronostico_ventas_2023-06-05.xlsx
@@ -450,7 +450,7 @@
         <v>342.3</v>
       </c>
       <c r="B2" t="n">
-        <v>383.7866186670077</v>
+        <v>383.7866210694772</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>339.7</v>
       </c>
       <c r="B3" t="n">
-        <v>297.5062590113038</v>
+        <v>297.5062590211785</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>440.4</v>
       </c>
       <c r="B4" t="n">
-        <v>350.1482468172366</v>
+        <v>350.1482468052286</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>315.9</v>
       </c>
       <c r="B5" t="n">
-        <v>386.9325515343654</v>
+        <v>386.9325516920766</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>439.3</v>
       </c>
       <c r="B6" t="n">
-        <v>411.6023259113217</v>
+        <v>411.6023257136824</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>401.3</v>
       </c>
       <c r="B7" t="n">
-        <v>363.4568272857676</v>
+        <v>363.4568271902334</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>437.4</v>
       </c>
       <c r="B8" t="n">
-        <v>439.9165575020147</v>
+        <v>439.9165574944883</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>575.5</v>
       </c>
       <c r="B9" t="n">
-        <v>424.9049512111462</v>
+        <v>424.9049512217093</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>407.6</v>
       </c>
       <c r="B10" t="n">
-        <v>509.8949251355787</v>
+        <v>509.8949246628405</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>682</v>
       </c>
       <c r="B11" t="n">
-        <v>542.2284972794961</v>
+        <v>542.2284970754116</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>475.3</v>
       </c>
       <c r="B12" t="n">
-        <v>494.668581156689</v>
+        <v>494.6685273708808</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>581.3</v>
       </c>
       <c r="B13" t="n">
-        <v>670.2818876816614</v>
+        <v>670.2818888324255</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>646.9</v>
       </c>
       <c r="B14" t="n">
-        <v>517.9427684062318</v>
+        <v>517.9427684787637</v>
       </c>
     </row>
   </sheetData>
